--- a/more.xlsx
+++ b/more.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="610" yWindow="610" windowWidth="17950" windowHeight="6490"/>
+    <workbookView xWindow="610" yWindow="530" windowWidth="17950" windowHeight="7490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>date</t>
   </si>
@@ -23,12 +23,99 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>-5543</t>
+  </si>
+  <si>
+    <t>2454</t>
+  </si>
+  <si>
+    <t>-5051</t>
+  </si>
+  <si>
+    <t>-11246</t>
+  </si>
+  <si>
+    <t>3063</t>
+  </si>
+  <si>
+    <t>-618</t>
+  </si>
+  <si>
+    <t>-4996</t>
+  </si>
+  <si>
+    <t>-3044</t>
+  </si>
+  <si>
+    <t>-5787</t>
+  </si>
+  <si>
+    <t>1563</t>
+  </si>
+  <si>
+    <t>-2876</t>
+  </si>
+  <si>
+    <t>617</t>
+  </si>
+  <si>
+    <t>-12999</t>
+  </si>
+  <si>
+    <t>4533</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -67,19 +154,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -382,139 +463,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="3"/>
+    <col min="2" max="2" width="14.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="1">
+      <c r="B2" s="2">
+        <v>44328</v>
+      </c>
+      <c r="C2">
+        <v>34101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>44329</v>
+      </c>
+      <c r="C3">
+        <v>10821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>44330</v>
+      </c>
+      <c r="C4">
+        <v>22568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>44333</v>
+      </c>
+      <c r="C5">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>44334</v>
+      </c>
+      <c r="C6">
+        <v>-4973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
         <v>44335</v>
       </c>
-      <c r="C2" s="3">
-        <v>-5543</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
         <v>44336</v>
       </c>
-      <c r="C3" s="3">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
         <v>44337</v>
       </c>
-      <c r="C4" s="3">
-        <v>-5051</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
         <v>44340</v>
       </c>
-      <c r="C5" s="3">
-        <v>-11246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
         <v>44341</v>
       </c>
-      <c r="C6" s="3">
-        <v>3063</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
         <v>44342</v>
       </c>
-      <c r="C7" s="3">
-        <v>-618</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
         <v>44343</v>
       </c>
-      <c r="C8" s="3">
-        <v>-4996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
         <v>44344</v>
       </c>
-      <c r="C9" s="3">
-        <v>-3044</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>44347</v>
-      </c>
-      <c r="C10" s="3">
-        <v>-5787</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>44348</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>44349</v>
-      </c>
-      <c r="C12" s="3">
-        <v>-2876</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>44350</v>
-      </c>
-      <c r="C13" s="3">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>44351</v>
-      </c>
-      <c r="C14" s="3">
-        <v>-12999</v>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44347</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44348</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44349</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44350</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44351</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1">
         <v>44354</v>
       </c>
-      <c r="C15" s="4">
-        <v>4533</v>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44355</v>
+      </c>
+      <c r="C21">
+        <v>-7154</v>
       </c>
     </row>
   </sheetData>

--- a/more.xlsx
+++ b/more.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="610" yWindow="530" windowWidth="17950" windowHeight="7490"/>
+    <workbookView xWindow="610" yWindow="610" windowWidth="17950" windowHeight="6490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>date</t>
   </si>
@@ -67,6 +67,42 @@
     <t>15</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>34101</t>
+  </si>
+  <si>
+    <t>10821</t>
+  </si>
+  <si>
+    <t>22568</t>
+  </si>
+  <si>
+    <t>1038</t>
+  </si>
+  <si>
+    <t>-4973</t>
+  </si>
+  <si>
     <t>-5543</t>
   </si>
   <si>
@@ -107,6 +143,15 @@
   </si>
   <si>
     <t>4533</t>
+  </si>
+  <si>
+    <t>-7154</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>5873</t>
   </si>
 </sst>
 </file>
@@ -154,14 +199,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -463,15 +505,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.296875" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -483,208 +525,245 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
         <v>44328</v>
       </c>
-      <c r="C2">
-        <v>34101</v>
+      <c r="C2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
         <v>44329</v>
       </c>
-      <c r="C3">
-        <v>10821</v>
+      <c r="C3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
         <v>44330</v>
       </c>
-      <c r="C4">
-        <v>22568</v>
+      <c r="C4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
         <v>44333</v>
       </c>
-      <c r="C5">
-        <v>1038</v>
+      <c r="C5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
         <v>44334</v>
       </c>
-      <c r="C6">
-        <v>-4973</v>
+      <c r="C6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>44335</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>44336</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>44337</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>44340</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>44341</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>44342</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>44343</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>44344</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>44347</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>44348</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>44349</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>44350</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>44351</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>44354</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>44355</v>
       </c>
-      <c r="C21">
-        <v>-7154</v>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44356</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44358</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/more.xlsx
+++ b/more.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>date</t>
   </si>
@@ -88,6 +88,12 @@
     <t>22</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>34101</t>
   </si>
   <si>
@@ -148,10 +154,10 @@
     <t>-7154</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>5873</t>
+  </si>
+  <si>
+    <t>1291</t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -505,15 +511,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -532,7 +538,7 @@
         <v>44328</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -543,7 +549,7 @@
         <v>44329</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -554,7 +560,7 @@
         <v>44330</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -565,7 +571,7 @@
         <v>44333</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -576,7 +582,7 @@
         <v>44334</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -587,7 +593,7 @@
         <v>44335</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -598,7 +604,7 @@
         <v>44336</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -609,7 +615,7 @@
         <v>44337</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -620,7 +626,7 @@
         <v>44340</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -631,7 +637,7 @@
         <v>44341</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -642,7 +648,7 @@
         <v>44342</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -653,7 +659,7 @@
         <v>44343</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -664,7 +670,7 @@
         <v>44344</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -675,7 +681,7 @@
         <v>44347</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -686,7 +692,7 @@
         <v>44348</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -697,7 +703,7 @@
         <v>44349</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -708,7 +714,7 @@
         <v>44350</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -719,7 +725,7 @@
         <v>44351</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -730,7 +736,7 @@
         <v>44354</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -741,7 +747,7 @@
         <v>44355</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -752,7 +758,7 @@
         <v>44356</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -760,10 +766,32 @@
         <v>23</v>
       </c>
       <c r="B23" s="1">
+        <v>44357</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
         <v>44358</v>
       </c>
-      <c r="C23" t="s">
-        <v>45</v>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44362</v>
+      </c>
+      <c r="C25">
+        <v>-11240</v>
       </c>
     </row>
   </sheetData>

--- a/more.xlsx
+++ b/more.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>date</t>
   </si>
@@ -98,6 +98,15 @@
     <t>26</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>34101</t>
   </si>
   <si>
@@ -171,6 +180,15 @@
   </si>
   <si>
     <t>-13823</t>
+  </si>
+  <si>
+    <t>-1362</t>
+  </si>
+  <si>
+    <t>-6430</t>
+  </si>
+  <si>
+    <t>-5463</t>
   </si>
 </sst>
 </file>
@@ -242,7 +260,7 @@
         <v>44328.0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -253,7 +271,7 @@
         <v>44329.0</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -264,7 +282,7 @@
         <v>44330.0</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -275,7 +293,7 @@
         <v>44333.0</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -286,7 +304,7 @@
         <v>44334.0</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -297,7 +315,7 @@
         <v>44335.0</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -308,7 +326,7 @@
         <v>44336.0</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -319,7 +337,7 @@
         <v>44337.0</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -330,7 +348,7 @@
         <v>44340.0</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -341,7 +359,7 @@
         <v>44341.0</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -352,7 +370,7 @@
         <v>44342.0</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -363,7 +381,7 @@
         <v>44343.0</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -374,7 +392,7 @@
         <v>44344.0</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
@@ -385,7 +403,7 @@
         <v>44347.0</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -396,7 +414,7 @@
         <v>44348.0</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
@@ -407,7 +425,7 @@
         <v>44349.0</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -418,7 +436,7 @@
         <v>44350.0</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -429,7 +447,7 @@
         <v>44351.0</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -440,7 +458,7 @@
         <v>44354.0</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
@@ -451,7 +469,7 @@
         <v>44355.0</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
@@ -473,7 +491,7 @@
         <v>44357.0</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
@@ -484,7 +502,7 @@
         <v>44358.0</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
@@ -495,7 +513,7 @@
         <v>44362.0</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
@@ -506,7 +524,7 @@
         <v>44363.0</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
@@ -517,7 +535,40 @@
         <v>44364.0</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n" s="2">
+        <v>44365.0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n" s="2">
+        <v>44368.0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n" s="2">
+        <v>44369.0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/more.xlsx
+++ b/more.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>date</t>
   </si>
@@ -107,6 +107,9 @@
     <t>29</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>34101</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
   </si>
   <si>
     <t>-5463</t>
+  </si>
+  <si>
+    <t>835</t>
   </si>
 </sst>
 </file>
@@ -260,7 +266,7 @@
         <v>44328.0</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -271,7 +277,7 @@
         <v>44329.0</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -282,7 +288,7 @@
         <v>44330.0</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -293,7 +299,7 @@
         <v>44333.0</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -304,7 +310,7 @@
         <v>44334.0</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -315,7 +321,7 @@
         <v>44335.0</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -326,7 +332,7 @@
         <v>44336.0</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -337,7 +343,7 @@
         <v>44337.0</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -348,7 +354,7 @@
         <v>44340.0</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -359,7 +365,7 @@
         <v>44341.0</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -370,7 +376,7 @@
         <v>44342.0</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -381,7 +387,7 @@
         <v>44343.0</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -392,7 +398,7 @@
         <v>44344.0</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -403,7 +409,7 @@
         <v>44347.0</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -414,7 +420,7 @@
         <v>44348.0</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -425,7 +431,7 @@
         <v>44349.0</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -436,7 +442,7 @@
         <v>44350.0</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -447,7 +453,7 @@
         <v>44351.0</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -458,7 +464,7 @@
         <v>44354.0</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -469,7 +475,7 @@
         <v>44355.0</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
@@ -491,7 +497,7 @@
         <v>44357.0</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -502,7 +508,7 @@
         <v>44358.0</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -513,7 +519,7 @@
         <v>44362.0</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
@@ -524,7 +530,7 @@
         <v>44363.0</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -535,7 +541,7 @@
         <v>44364.0</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
@@ -546,7 +552,7 @@
         <v>44365.0</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
@@ -557,7 +563,7 @@
         <v>44368.0</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -568,7 +574,18 @@
         <v>44369.0</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n" s="2">
+        <v>44370.0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/more.xlsx
+++ b/more.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>date</t>
   </si>
@@ -110,6 +110,15 @@
     <t>30</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>34101</t>
   </si>
   <si>
@@ -195,6 +204,15 @@
   </si>
   <si>
     <t>835</t>
+  </si>
+  <si>
+    <t>-4268</t>
+  </si>
+  <si>
+    <t>8475</t>
+  </si>
+  <si>
+    <t>-6746</t>
   </si>
 </sst>
 </file>
@@ -266,7 +284,7 @@
         <v>44328.0</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -277,7 +295,7 @@
         <v>44329.0</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -288,7 +306,7 @@
         <v>44330.0</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -299,7 +317,7 @@
         <v>44333.0</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -310,7 +328,7 @@
         <v>44334.0</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -321,7 +339,7 @@
         <v>44335.0</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -332,7 +350,7 @@
         <v>44336.0</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -343,7 +361,7 @@
         <v>44337.0</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -354,7 +372,7 @@
         <v>44340.0</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -365,7 +383,7 @@
         <v>44341.0</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -376,7 +394,7 @@
         <v>44342.0</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -387,7 +405,7 @@
         <v>44343.0</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -398,7 +416,7 @@
         <v>44344.0</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
@@ -409,7 +427,7 @@
         <v>44347.0</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -420,7 +438,7 @@
         <v>44348.0</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -431,7 +449,7 @@
         <v>44349.0</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -442,7 +460,7 @@
         <v>44350.0</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -453,7 +471,7 @@
         <v>44351.0</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
@@ -464,7 +482,7 @@
         <v>44354.0</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -475,7 +493,7 @@
         <v>44355.0</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -497,7 +515,7 @@
         <v>44357.0</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -508,7 +526,7 @@
         <v>44358.0</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
@@ -519,7 +537,7 @@
         <v>44362.0</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
@@ -530,7 +548,7 @@
         <v>44363.0</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
@@ -541,7 +559,7 @@
         <v>44364.0</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -552,7 +570,7 @@
         <v>44365.0</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -563,7 +581,7 @@
         <v>44368.0</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
@@ -574,7 +592,7 @@
         <v>44369.0</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
@@ -585,7 +603,40 @@
         <v>44370.0</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n" s="2">
+        <v>44371.0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n" s="2">
+        <v>44372.0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n" s="2">
+        <v>44375.0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/more.xlsx
+++ b/more.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="610" yWindow="610" windowWidth="17950" windowHeight="6490"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>date</t>
   </si>
@@ -119,6 +121,33 @@
     <t>33</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>34101</t>
   </si>
   <si>
@@ -213,21 +242,55 @@
   </si>
   <si>
     <t>-6746</t>
+  </si>
+  <si>
+    <t>4075</t>
+  </si>
+  <si>
+    <t>1221</t>
+  </si>
+  <si>
+    <t>-8061</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>1625</t>
+  </si>
+  <si>
+    <t>-4640</t>
+  </si>
+  <si>
+    <t>5996</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>-10570</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -236,7 +299,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -249,26 +312,328 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -276,370 +641,471 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n" s="2">
-        <v>44328.0</v>
+      <c r="B2" s="1">
+        <v>44328</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n" s="2">
-        <v>44329.0</v>
+      <c r="B3" s="1">
+        <v>44329</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="n" s="2">
-        <v>44330.0</v>
+      <c r="B4" s="1">
+        <v>44330</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="n" s="2">
-        <v>44333.0</v>
+      <c r="B5" s="1">
+        <v>44333</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="n" s="2">
-        <v>44334.0</v>
+      <c r="B6" s="1">
+        <v>44334</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="n" s="2">
-        <v>44335.0</v>
+      <c r="B7" s="1">
+        <v>44335</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="n" s="2">
-        <v>44336.0</v>
+      <c r="B8" s="1">
+        <v>44336</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="n" s="2">
-        <v>44337.0</v>
+      <c r="B9" s="1">
+        <v>44337</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="n" s="2">
-        <v>44340.0</v>
+      <c r="B10" s="1">
+        <v>44340</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="n" s="2">
-        <v>44341.0</v>
+      <c r="B11" s="1">
+        <v>44341</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="n" s="2">
-        <v>44342.0</v>
+      <c r="B12" s="1">
+        <v>44342</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="n" s="2">
-        <v>44343.0</v>
+      <c r="B13" s="1">
+        <v>44343</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="n" s="2">
-        <v>44344.0</v>
+      <c r="B14" s="1">
+        <v>44344</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="n" s="2">
-        <v>44347.0</v>
+      <c r="B15" s="1">
+        <v>44347</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="n" s="2">
-        <v>44348.0</v>
+      <c r="B16" s="1">
+        <v>44348</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="n" s="2">
-        <v>44349.0</v>
+      <c r="B17" s="1">
+        <v>44349</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="n" s="2">
-        <v>44350.0</v>
+      <c r="B18" s="1">
+        <v>44350</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="n" s="2">
-        <v>44351.0</v>
+      <c r="B19" s="1">
+        <v>44351</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="n" s="2">
-        <v>44354.0</v>
+      <c r="B20" s="1">
+        <v>44354</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="n" s="2">
-        <v>44355.0</v>
+      <c r="B21" s="1">
+        <v>44355</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="n" s="2">
-        <v>44356.0</v>
+      <c r="B22" s="1">
+        <v>44356</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="n" s="2">
-        <v>44357.0</v>
+      <c r="B23" s="1">
+        <v>44357</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="n" s="2">
-        <v>44358.0</v>
+      <c r="B24" s="1">
+        <v>44358</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="n" s="2">
-        <v>44362.0</v>
+      <c r="B25" s="1">
+        <v>44362</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="n" s="2">
-        <v>44363.0</v>
+      <c r="B26" s="1">
+        <v>44363</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="n" s="2">
-        <v>44364.0</v>
+      <c r="B27" s="1">
+        <v>44364</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="n" s="2">
-        <v>44365.0</v>
+      <c r="B28" s="1">
+        <v>44365</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="n" s="2">
-        <v>44368.0</v>
+      <c r="B29" s="1">
+        <v>44368</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="n" s="2">
-        <v>44369.0</v>
+      <c r="B30" s="1">
+        <v>44369</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="n" s="2">
-        <v>44370.0</v>
+      <c r="B31" s="1">
+        <v>44370</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="n" s="2">
-        <v>44371.0</v>
+      <c r="B32" s="1">
+        <v>44371</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="n" s="2">
-        <v>44372.0</v>
+      <c r="B33" s="1">
+        <v>44372</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="n" s="2">
-        <v>44375.0</v>
+      <c r="B34" s="1">
+        <v>44375</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44376</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44377</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44378</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44379</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44382</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44383</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1">
+        <v>44384</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>44385</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44386</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/more.xlsx
+++ b/more.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>date</t>
   </si>
@@ -148,6 +148,36 @@
     <t>42</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
     <t>34101</t>
   </si>
   <si>
@@ -269,6 +299,36 @@
   </si>
   <si>
     <t>-10570</t>
+  </si>
+  <si>
+    <t>2617</t>
+  </si>
+  <si>
+    <t>-1482</t>
+  </si>
+  <si>
+    <t>-12302</t>
+  </si>
+  <si>
+    <t>-7718</t>
+  </si>
+  <si>
+    <t>-12927</t>
+  </si>
+  <si>
+    <t>4372</t>
+  </si>
+  <si>
+    <t>2776</t>
+  </si>
+  <si>
+    <t>-4403</t>
+  </si>
+  <si>
+    <t>-501</t>
+  </si>
+  <si>
+    <t>-3352</t>
   </si>
 </sst>
 </file>
@@ -622,16 +682,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C54" sqref="A54:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -649,7 +706,7 @@
         <v>44328</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -660,7 +717,7 @@
         <v>44329</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -671,7 +728,7 @@
         <v>44330</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -682,7 +739,7 @@
         <v>44333</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -693,7 +750,7 @@
         <v>44334</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -704,7 +761,7 @@
         <v>44335</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -715,7 +772,7 @@
         <v>44336</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -726,7 +783,7 @@
         <v>44337</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -737,7 +794,7 @@
         <v>44340</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -748,7 +805,7 @@
         <v>44341</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -759,7 +816,7 @@
         <v>44342</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -770,7 +827,7 @@
         <v>44343</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -781,7 +838,7 @@
         <v>44344</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -792,7 +849,7 @@
         <v>44347</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -803,7 +860,7 @@
         <v>44348</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -814,7 +871,7 @@
         <v>44349</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -825,7 +882,7 @@
         <v>44350</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -836,7 +893,7 @@
         <v>44351</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -847,7 +904,7 @@
         <v>44354</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -858,7 +915,7 @@
         <v>44355</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -880,7 +937,7 @@
         <v>44357</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -891,7 +948,7 @@
         <v>44358</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -902,7 +959,7 @@
         <v>44362</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -913,7 +970,7 @@
         <v>44363</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -924,7 +981,7 @@
         <v>44364</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -935,7 +992,7 @@
         <v>44365</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -946,7 +1003,7 @@
         <v>44368</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -957,7 +1014,7 @@
         <v>44369</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -968,7 +1025,7 @@
         <v>44370</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -979,7 +1036,7 @@
         <v>44371</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -990,7 +1047,7 @@
         <v>44372</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1001,7 +1058,7 @@
         <v>44375</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1012,7 +1069,7 @@
         <v>44376</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1023,7 +1080,7 @@
         <v>44377</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1034,7 +1091,7 @@
         <v>44378</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1045,7 +1102,7 @@
         <v>44379</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1056,7 +1113,7 @@
         <v>44382</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1067,7 +1124,7 @@
         <v>44383</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1078,7 +1135,7 @@
         <v>44384</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1089,7 +1146,7 @@
         <v>44385</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1100,8 +1157,121 @@
         <v>44386</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
-      </c>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1">
+        <v>44389</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44390</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44393</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44396</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1">
+        <v>44397</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1">
+        <v>44398</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44399</v>
+      </c>
+      <c r="C50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1">
+        <v>44403</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44404</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44404</v>
+      </c>
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/more.xlsx
+++ b/more.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="133">
   <si>
     <t>date</t>
   </si>
@@ -178,6 +178,48 @@
     <t>52</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>34101</t>
   </si>
   <si>
@@ -329,6 +371,48 @@
   </si>
   <si>
     <t>-3352</t>
+  </si>
+  <si>
+    <t>5328</t>
+  </si>
+  <si>
+    <t>23544</t>
+  </si>
+  <si>
+    <t>-8092</t>
+  </si>
+  <si>
+    <t>1933</t>
+  </si>
+  <si>
+    <t>3918</t>
+  </si>
+  <si>
+    <t>7446</t>
+  </si>
+  <si>
+    <t>-18484</t>
+  </si>
+  <si>
+    <t>-18480</t>
+  </si>
+  <si>
+    <t>8639</t>
+  </si>
+  <si>
+    <t>-11239</t>
+  </si>
+  <si>
+    <t>18850</t>
+  </si>
+  <si>
+    <t>-8355</t>
+  </si>
+  <si>
+    <t>19671</t>
+  </si>
+  <si>
+    <t>-5766</t>
   </si>
 </sst>
 </file>
@@ -682,13 +766,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C54" sqref="A54:C54"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -706,7 +793,7 @@
         <v>44328</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -717,7 +804,7 @@
         <v>44329</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -728,7 +815,7 @@
         <v>44330</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -739,7 +826,7 @@
         <v>44333</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -750,7 +837,7 @@
         <v>44334</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -761,7 +848,7 @@
         <v>44335</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -772,7 +859,7 @@
         <v>44336</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -783,7 +870,7 @@
         <v>44337</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -794,7 +881,7 @@
         <v>44340</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -805,7 +892,7 @@
         <v>44341</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -816,7 +903,7 @@
         <v>44342</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -827,7 +914,7 @@
         <v>44343</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -838,7 +925,7 @@
         <v>44344</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -849,7 +936,7 @@
         <v>44347</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -860,7 +947,7 @@
         <v>44348</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -871,7 +958,7 @@
         <v>44349</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -882,7 +969,7 @@
         <v>44350</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -893,7 +980,7 @@
         <v>44351</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -904,7 +991,7 @@
         <v>44354</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -915,7 +1002,7 @@
         <v>44355</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -937,7 +1024,7 @@
         <v>44357</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -948,7 +1035,7 @@
         <v>44358</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -959,7 +1046,7 @@
         <v>44362</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -970,7 +1057,7 @@
         <v>44363</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -981,7 +1068,7 @@
         <v>44364</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -992,7 +1079,7 @@
         <v>44365</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1003,7 +1090,7 @@
         <v>44368</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1014,7 +1101,7 @@
         <v>44369</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1025,7 +1112,7 @@
         <v>44370</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1036,7 +1123,7 @@
         <v>44371</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1047,7 +1134,7 @@
         <v>44372</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1058,7 +1145,7 @@
         <v>44375</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1069,7 +1156,7 @@
         <v>44376</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1080,7 +1167,7 @@
         <v>44377</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1091,7 +1178,7 @@
         <v>44378</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1102,7 +1189,7 @@
         <v>44379</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1113,7 +1200,7 @@
         <v>44382</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1124,7 +1211,7 @@
         <v>44383</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1135,7 +1222,7 @@
         <v>44384</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1146,7 +1233,7 @@
         <v>44385</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1157,7 +1244,7 @@
         <v>44386</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1168,7 +1255,7 @@
         <v>44389</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1179,7 +1266,7 @@
         <v>44390</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1190,7 +1277,7 @@
         <v>44393</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1201,7 +1288,7 @@
         <v>44396</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1212,7 +1299,7 @@
         <v>44397</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1223,7 +1310,7 @@
         <v>44398</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1234,7 +1321,7 @@
         <v>44399</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1245,7 +1332,7 @@
         <v>44403</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1256,7 +1343,7 @@
         <v>44404</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1267,11 +1354,162 @@
         <v>44404</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="1"/>
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1">
+        <v>44406</v>
+      </c>
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1">
+        <v>44407</v>
+      </c>
+      <c r="C55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1">
+        <v>44407</v>
+      </c>
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1">
+        <v>44410</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1">
+        <v>44411</v>
+      </c>
+      <c r="C58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1">
+        <v>44412</v>
+      </c>
+      <c r="C59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="1">
+        <v>44413</v>
+      </c>
+      <c r="C60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1">
+        <v>44414</v>
+      </c>
+      <c r="C61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1">
+        <v>44417</v>
+      </c>
+      <c r="C62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1">
+        <v>44418</v>
+      </c>
+      <c r="C63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1">
+        <v>44419</v>
+      </c>
+      <c r="C64" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="1">
+        <v>44421</v>
+      </c>
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1">
+        <v>44424</v>
+      </c>
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1">
+        <v>44427</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
